--- a/input_csv/04_Grafikkarten/artikel.xlsx
+++ b/input_csv/04_Grafikkarten/artikel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\04_Grafikkarten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FCFA4A-16AC-4A5F-A439-8876D812656C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0D3A18-13E2-4259-A245-5F9867500FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{70649921-FF15-4F36-A700-82C0F38CCC35}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Artikelname</t>
   </si>
@@ -31,32 +31,128 @@
     <t>GTIN</t>
   </si>
   <si>
-    <t>Gigabyte GeForce RTX 5090 AORUS MASTER ICE 32G OC</t>
-  </si>
-  <si>
-    <t>4,71933E+12</t>
-  </si>
-  <si>
-    <t>Nvidia GeForce RTX 5050 8GB GDDR6 mit DLSS 4</t>
+    <t>AMD Radeon RX 6400 4GB</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 6500 XT 4GB</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 7600 8GB</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 7700 XT 12GB</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 7800 XT 16GB</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 7900 XT 20GB</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 7900 XTX 24GB</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 9060 XT 16GB</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 9060 XT 8GB</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 9070 16GB</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 9070 XT 16GB</t>
+  </si>
+  <si>
+    <t>ASUS AMD Radeon RX 9070 XT TUF GAMING OC</t>
+  </si>
+  <si>
+    <t>ASUS GeForce RTX 5070 12GB Dual</t>
+  </si>
+  <si>
+    <t>ASUS Prime GeForce RTX 5070 OC Edition 12GB</t>
+  </si>
+  <si>
+    <t>ASUS Prime Radeon RX 9060 XT 16GB OC</t>
+  </si>
+  <si>
+    <t>ASUS ROG Astral GeForce RTX 5080 OC Edition 16GB GDDR7</t>
+  </si>
+  <si>
+    <t>Gigabyte GeForce RTX 5060 WINDFORCE OC 8G</t>
+  </si>
+  <si>
+    <t>Gigabyte GeForce RTX 5070 Windforce OC SFF 12GB</t>
+  </si>
+  <si>
+    <t>MSI GeForce RTX 5060 8GB Shadow 2X OC</t>
   </si>
   <si>
     <t>MSI GeForce RTX 5070 12GB Ventus 2x OC</t>
   </si>
   <si>
-    <t>4,71138E+12</t>
-  </si>
-  <si>
-    <t>ZOTAC GAMING GeForce RTX 5080 AMP Extreme INFINITY</t>
-  </si>
-  <si>
-    <t>GIGABYTE AMD Radeon RX 9070 XT Gaming OC 16GB</t>
+    <t>MSI GeForce RTX 5080 16GB Gaming Trio OC White</t>
+  </si>
+  <si>
+    <t>Nvidia GeForce GT 1030</t>
+  </si>
+  <si>
+    <t>Nvidia GeForce RTX 3050 6GB</t>
+  </si>
+  <si>
+    <t>Nvidia GeForce RTX 3060 12GB</t>
+  </si>
+  <si>
+    <t>Nvidia GeForce RTX 5050 8GB GDDR6</t>
+  </si>
+  <si>
+    <t>Nvidia GeForce RTX 5060 8GB</t>
+  </si>
+  <si>
+    <t>Nvidia GeForce RTX 5060 Ti 16GB</t>
+  </si>
+  <si>
+    <t>Nvidia GeForce RTX 5060 Ti 8GB</t>
+  </si>
+  <si>
+    <t>Nvidia GeForce RTX 5070 12GB</t>
+  </si>
+  <si>
+    <t>Nvidia GeForce RTX 5070 TI 16GB</t>
+  </si>
+  <si>
+    <t>Nvidia GeForce RTX 5080 16GB</t>
+  </si>
+  <si>
+    <t>Nvidia GeForce RTX 5090 32GB</t>
+  </si>
+  <si>
+    <t>Nvidia Quadro P1000 4GB GDDR5</t>
+  </si>
+  <si>
+    <t>10724-a</t>
+  </si>
+  <si>
+    <t>PNY GeForce RTX 5070 Ti ARGB EPIC-X RGB OC</t>
+  </si>
+  <si>
+    <t>Radeon RX Vega 8 (5755G)</t>
+  </si>
+  <si>
+    <t>Nvidia GeForce RTX 3050 8GB GDDR6</t>
+  </si>
+  <si>
+    <t>Gainward GeForce RTX 5060 Ti 16GB Ghost OC</t>
+  </si>
+  <si>
+    <t>Sapphire Pure Radeon RX 7900 XT Weiss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +283,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -533,9 +636,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -911,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF757535-C4E0-4923-A5D3-863EA6B3524C}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,55 +1040,327 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>107173</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>103400</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="2">
+        <v>103223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="2">
+        <v>106145</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>106210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>106209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>106005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>106004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>106997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>106996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>106906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>106905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>106998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>107056</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>106780</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>107001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>107170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <v>107069</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2">
+        <v>107100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2">
+        <v>106988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>107051</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>106817</v>
+      </c>
+      <c r="C22">
+        <v>4711377292177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
+        <v>106401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>103216</v>
+      </c>
+      <c r="C25">
+        <v>4719331310721</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>103002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
         <v>107010</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>107051</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>106892</v>
-      </c>
-      <c r="C5">
-        <v>8886307700032</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>106919</v>
-      </c>
-      <c r="C6">
-        <v>4719331355524</v>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2">
+        <v>106926</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2">
+        <v>106928</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>106927</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2">
+        <v>106761</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
+        <v>106762</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2">
+        <v>106763</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2">
+        <v>106764</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2">
+        <v>103227</v>
+      </c>
+      <c r="C35">
+        <v>3536403375706</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2">
+        <v>107091</v>
+      </c>
+      <c r="C36">
+        <v>751492794570</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2">
+        <v>107183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="2">
+        <v>107155</v>
+      </c>
+      <c r="C38">
+        <v>4710562245721</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="2">
+        <v>107104</v>
+      </c>
+      <c r="C39">
+        <v>4895106296275</v>
       </c>
     </row>
   </sheetData>

--- a/input_csv/04_Grafikkarten/artikel.xlsx
+++ b/input_csv/04_Grafikkarten/artikel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\04_Grafikkarten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0D3A18-13E2-4259-A245-5F9867500FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A049DE89-9FF4-44EE-8C4E-F313CB71FB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{70649921-FF15-4F36-A700-82C0F38CCC35}"/>
   </bookViews>
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF757535-C4E0-4923-A5D3-863EA6B3524C}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input_csv/04_Grafikkarten/artikel.xlsx
+++ b/input_csv/04_Grafikkarten/artikel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\04_Grafikkarten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A049DE89-9FF4-44EE-8C4E-F313CB71FB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76FA39A-AFF7-46A3-9668-3B59E363C5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{70649921-FF15-4F36-A700-82C0F38CCC35}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{70649921-FF15-4F36-A700-82C0F38CCC35}"/>
   </bookViews>
   <sheets>
     <sheet name="Grafikkarten" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Artikelname</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>Sapphire Pure Radeon RX 7900 XT Weiss</t>
+  </si>
+  <si>
+    <t>ASUS Prime Radeon RX 9060 XT 16GB GDDR6 OC Edition</t>
+  </si>
+  <si>
+    <t>ASUS TUF Gaming Nvidia GeForce RTX 4070 Super</t>
   </si>
 </sst>
 </file>
@@ -1015,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF757535-C4E0-4923-A5D3-863EA6B3524C}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,6 +1369,28 @@
         <v>4895106296275</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="2">
+        <v>107001</v>
+      </c>
+      <c r="C40">
+        <v>4711387994214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="2">
+        <v>106424</v>
+      </c>
+      <c r="C41">
+        <v>4711387450871</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
